--- a/Bryan spul/assetlist borrelbrouwer v2.xlsx
+++ b/Bryan spul/assetlist borrelbrouwer v2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GLU\Jaar 3\Projecten\Edugame\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>assetlist</t>
   </si>
@@ -165,13 +160,16 @@
   </si>
   <si>
     <t>element icons</t>
+  </si>
+  <si>
+    <t>main menu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,8 +185,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,12 +215,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -222,26 +234,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -299,7 +431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,7 +466,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -511,7 +643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -519,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,372 +665,427 @@
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="23"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="26"/>
+    </row>
+    <row r="27" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="25"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="23"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="23"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="23"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="23"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="23"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="26"/>
+    </row>
+    <row r="35" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="22"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="23"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="23"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="23"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="23"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="23"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="23"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="23"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="23"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="4"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="A46" s="7"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="4"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bryan spul/assetlist borrelbrouwer v2.xlsx
+++ b/Bryan spul/assetlist borrelbrouwer v2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\GitHub\P10EduGame\Bryan spul\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -93,9 +98,6 @@
     <t>particles</t>
   </si>
   <si>
-    <t>vuur particles</t>
-  </si>
-  <si>
     <t>elektriciteit particle</t>
   </si>
   <si>
@@ -163,12 +165,15 @@
   </si>
   <si>
     <t>main menu</t>
+  </si>
+  <si>
+    <t>vuur particle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -643,18 +648,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +804,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="10" t="s">
@@ -809,7 +814,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="9" t="s">
@@ -819,7 +824,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="10" t="s">
@@ -853,7 +858,7 @@
     </row>
     <row r="21" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="18"/>
@@ -919,77 +924,77 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="23"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" s="26"/>
     </row>
     <row r="35" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="18"/>
@@ -997,7 +1002,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
@@ -1005,7 +1010,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
@@ -1013,7 +1018,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
@@ -1021,7 +1026,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
@@ -1029,7 +1034,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
@@ -1037,7 +1042,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
@@ -1045,7 +1050,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
@@ -1053,7 +1058,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -1061,7 +1066,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
@@ -1069,7 +1074,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="7"/>

--- a/Bryan spul/assetlist borrelbrouwer v2.xlsx
+++ b/Bryan spul/assetlist borrelbrouwer v2.xlsx
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
